--- a/bigsurvey/uploads/media/Sample_Town.xlsx
+++ b/bigsurvey/uploads/media/Sample_Town.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Veronika\Dropbox\Work\BFP Data Survey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14910" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="backflow" sheetId="1" r:id="rId1"/>
@@ -19,80 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="59">
   <si>
     <t>LA</t>
   </si>
   <si>
-    <t>HIGHWAY 18</t>
-  </si>
-  <si>
-    <t>DES ALLEMANDS BLVD.</t>
-  </si>
-  <si>
-    <t>PO BOX 2530</t>
-  </si>
-  <si>
-    <t>W. 5TH ST.</t>
-  </si>
-  <si>
-    <t>MAPLE LOOP</t>
-  </si>
-  <si>
-    <t>W. 3RD ST.</t>
-  </si>
-  <si>
-    <t>W. 1ST ST.</t>
-  </si>
-  <si>
-    <t>DUCK LN.</t>
-  </si>
-  <si>
-    <t>1801 W AIRLINE HWY # 101</t>
-  </si>
-  <si>
-    <t>43 HOLLY DR</t>
-  </si>
-  <si>
-    <t>PO BOX 100</t>
-  </si>
-  <si>
-    <t>101 HOLLY DR</t>
-  </si>
-  <si>
-    <t>ICI LN.</t>
-  </si>
-  <si>
-    <t>PO BOX 869</t>
-  </si>
-  <si>
-    <t>PO BOX 365</t>
-  </si>
-  <si>
-    <t>6161 HIGHWAY 18</t>
-  </si>
-  <si>
-    <t>225 W 13TH ST</t>
-  </si>
-  <si>
-    <t>HIGHWAY 640 METER</t>
-  </si>
-  <si>
-    <t>3590 BELLE ROSE DR</t>
-  </si>
-  <si>
-    <t>1963 HIGHWAY 18</t>
-  </si>
-  <si>
-    <t>PARC PROMENADE</t>
-  </si>
-  <si>
-    <t>3209 GRANDLAKE BLVD</t>
-  </si>
-  <si>
-    <t>3037 JONES CREEK RD</t>
-  </si>
-  <si>
     <t>AccountNumber</t>
   </si>
   <si>
@@ -102,12 +33,21 @@
     <t>CustomerCode</t>
   </si>
   <si>
+    <t>ConnectDate</t>
+  </si>
+  <si>
+    <t>NextSurveyDate</t>
+  </si>
+  <si>
     <t>ServiceStreetNumber</t>
   </si>
   <si>
     <t>ServiceStreetAddress</t>
   </si>
   <si>
+    <t>SiteApt</t>
+  </si>
+  <si>
     <t>ServiceTown</t>
   </si>
   <si>
@@ -117,9 +57,24 @@
     <t>ServiceZip</t>
   </si>
   <si>
+    <t>Route</t>
+  </si>
+  <si>
+    <t>MeterNumber</t>
+  </si>
+  <si>
+    <t>MeterSize</t>
+  </si>
+  <si>
+    <t>MeterReading</t>
+  </si>
+  <si>
     <t>CustomerName</t>
   </si>
   <si>
+    <t>CustomerAddress1</t>
+  </si>
+  <si>
     <t>CustomerAddress2</t>
   </si>
   <si>
@@ -135,49 +90,112 @@
     <t>Sample Town</t>
   </si>
   <si>
-    <t>Cody Dugas</t>
-  </si>
-  <si>
-    <t>Nathan  Carter</t>
-  </si>
-  <si>
-    <t>Mitch Lebas</t>
-  </si>
-  <si>
-    <t>C&amp;N Vol Fire Dept.</t>
-  </si>
-  <si>
-    <t>Nathan's Holy Church</t>
-  </si>
-  <si>
-    <t>Cody 's Automotives</t>
-  </si>
-  <si>
-    <t>Mitch's Quick Stop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LeBas Funeral Home </t>
-  </si>
-  <si>
-    <t>Quick an Easy Chemical Plant</t>
-  </si>
-  <si>
-    <t>Gumbo Manufacturing</t>
-  </si>
-  <si>
-    <t>Cody D's Cheapo Depot Trailer Park</t>
-  </si>
-  <si>
-    <t>Nathan's High Quality Trailer Park</t>
-  </si>
-  <si>
-    <t>Old Man Mitch's Nursing Home</t>
-  </si>
-  <si>
-    <t>Ailments -R-Us</t>
-  </si>
-  <si>
-    <t>SA1234567</t>
+    <t>Resident 1</t>
+  </si>
+  <si>
+    <t>Resident 2</t>
+  </si>
+  <si>
+    <t>Resident 3</t>
+  </si>
+  <si>
+    <t>Fire Dept.</t>
+  </si>
+  <si>
+    <t>Church</t>
+  </si>
+  <si>
+    <t>Automotive Shop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convenience Store </t>
+  </si>
+  <si>
+    <t>Funeral Home</t>
+  </si>
+  <si>
+    <t>Industrial Chemical Plant</t>
+  </si>
+  <si>
+    <t>Manufacturing Plant</t>
+  </si>
+  <si>
+    <t>Trailer Park 1</t>
+  </si>
+  <si>
+    <t>Trailer Park 2</t>
+  </si>
+  <si>
+    <t>Nursing Home 1</t>
+  </si>
+  <si>
+    <t>Nursing Home 2</t>
+  </si>
+  <si>
+    <t>SA123456789</t>
+  </si>
+  <si>
+    <t>Main St.</t>
+  </si>
+  <si>
+    <t>First St.</t>
+  </si>
+  <si>
+    <t>Second St.</t>
+  </si>
+  <si>
+    <t>Fourth St.</t>
+  </si>
+  <si>
+    <t>Third St.</t>
+  </si>
+  <si>
+    <t>111 Main St.</t>
+  </si>
+  <si>
+    <t>326 Main St.</t>
+  </si>
+  <si>
+    <t>6161 Main St.</t>
+  </si>
+  <si>
+    <t>5733 First St.</t>
+  </si>
+  <si>
+    <t>136 Second St.</t>
+  </si>
+  <si>
+    <t>3445 Fourth St.</t>
+  </si>
+  <si>
+    <t>3447 Third St.</t>
+  </si>
+  <si>
+    <t>142 Main St.</t>
+  </si>
+  <si>
+    <t>1234 Main St.</t>
+  </si>
+  <si>
+    <t>122 First St.</t>
+  </si>
+  <si>
+    <t>1963 Second St.</t>
+  </si>
+  <si>
+    <t>113 Fourth St.</t>
+  </si>
+  <si>
+    <t>626 Third St.</t>
+  </si>
+  <si>
+    <t>441 Main St.</t>
+  </si>
+  <si>
+    <t>County/ Parish</t>
+  </si>
+  <si>
+    <t>Sample</t>
   </si>
 </sst>
 </file>
@@ -323,15 +341,11 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="34">
@@ -702,52 +716,54 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="42"/>
-    <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Акцент4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Акцент5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Акцент6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Заголовок 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Контрольная ячейка" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -763,9 +779,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -803,7 +819,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -875,7 +891,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1025,11 +1041,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomLeft" activeCell="P3" sqref="P3:P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,631 +1053,709 @@
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>670006401</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>12345</v>
+      </c>
+      <c r="J2">
+        <v>111</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>12345</v>
+      </c>
+      <c r="P2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>670008300</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>12345</v>
+      </c>
+      <c r="J3">
+        <v>326</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>12345</v>
+      </c>
+      <c r="P3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>610000213</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>12345</v>
+      </c>
+      <c r="J4">
+        <v>6161</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>12345</v>
+      </c>
+      <c r="P4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>610001545</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>12345</v>
+      </c>
+      <c r="J5">
+        <v>5733</v>
+      </c>
+      <c r="K5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>12345</v>
+      </c>
+      <c r="P5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>620001450</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>12345</v>
+      </c>
+      <c r="J6">
+        <v>136</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>12345</v>
+      </c>
+      <c r="P6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>630000060</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>12345</v>
+      </c>
+      <c r="J7">
+        <v>3445</v>
+      </c>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>12345</v>
+      </c>
+      <c r="P7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>630000171</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>12345</v>
+      </c>
+      <c r="J8">
+        <v>3347</v>
+      </c>
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>12345</v>
+      </c>
+      <c r="P8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>630000600</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>12345</v>
+      </c>
+      <c r="J9">
+        <v>142</v>
+      </c>
+      <c r="K9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" t="s">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>12345</v>
+      </c>
+      <c r="P9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>640001076</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>12345</v>
+      </c>
+      <c r="J10">
+        <v>1234</v>
+      </c>
+      <c r="K10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" t="s">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>12345</v>
+      </c>
+      <c r="P10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>640001331</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="F11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>12345</v>
+      </c>
+      <c r="J11">
+        <v>122</v>
+      </c>
+      <c r="K11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>12345</v>
+      </c>
+      <c r="P11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>650001140</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>12345</v>
+      </c>
+      <c r="J12">
+        <v>1963</v>
+      </c>
+      <c r="K12" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>12345</v>
+      </c>
+      <c r="P12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>520002221</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>12345</v>
+      </c>
+      <c r="J13">
+        <v>113</v>
+      </c>
+      <c r="K13" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>12345</v>
+      </c>
+      <c r="P13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>205015708</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>12345</v>
+      </c>
+      <c r="J14">
+        <v>626</v>
+      </c>
+      <c r="K14" t="s">
+        <v>38</v>
+      </c>
+      <c r="M14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>12345</v>
+      </c>
+      <c r="P14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>225022400</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>670006401</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>111</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>12345</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>12345</v>
+      </c>
+      <c r="J15">
+        <v>441</v>
+      </c>
+      <c r="K15" t="s">
         <v>38</v>
       </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>670008300</v>
-      </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>326</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>12345</v>
-      </c>
-      <c r="I3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>610000213</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>6161</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>12345</v>
-      </c>
-      <c r="I4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>610001545</v>
-      </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>5733</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>12345</v>
-      </c>
-      <c r="I5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>620001450</v>
-      </c>
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>136</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>12345</v>
-      </c>
-      <c r="I6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" t="s">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>630000060</v>
-      </c>
-      <c r="B7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>3445</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>12345</v>
-      </c>
-      <c r="I7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>630000171</v>
-      </c>
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>3347</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>12345</v>
-      </c>
-      <c r="I8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" t="s">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>630000600</v>
-      </c>
-      <c r="B9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>142</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>12345</v>
-      </c>
-      <c r="I9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" t="s">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>640001076</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>1234</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>12345</v>
-      </c>
-      <c r="I10" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" t="s">
-        <v>37</v>
-      </c>
-      <c r="L10" t="s">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>640001331</v>
-      </c>
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>122</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>12345</v>
-      </c>
-      <c r="I11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" t="s">
-        <v>37</v>
-      </c>
-      <c r="L11" t="s">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>650001140</v>
-      </c>
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>1963</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>12345</v>
-      </c>
-      <c r="I12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" t="s">
-        <v>37</v>
-      </c>
-      <c r="L12" t="s">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>520002221</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>113</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>12345</v>
-      </c>
-      <c r="I13" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" t="s">
-        <v>37</v>
-      </c>
-      <c r="L13" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>205015708</v>
-      </c>
-      <c r="B14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14">
-        <v>626</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>12345</v>
-      </c>
-      <c r="I14" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" t="s">
-        <v>37</v>
-      </c>
-      <c r="L14" t="s">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>225022400</v>
-      </c>
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>441</v>
-      </c>
-      <c r="E15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>12345</v>
-      </c>
-      <c r="I15" t="s">
-        <v>51</v>
-      </c>
-      <c r="J15" t="s">
-        <v>10</v>
-      </c>
-      <c r="K15" t="s">
-        <v>37</v>
-      </c>
-      <c r="L15" t="s">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>12345</v>
+      <c r="M15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>12345</v>
+      </c>
+      <c r="P15" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/bigsurvey/uploads/media/Sample_Town.xlsx
+++ b/bigsurvey/uploads/media/Sample_Town.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Veronika\Dropbox\Work\BFP Data Survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="64">
   <si>
     <t>LA</t>
   </si>
@@ -196,6 +196,21 @@
   </si>
   <si>
     <t>Sample</t>
+  </si>
+  <si>
+    <t>Residential</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>Industrial</t>
+  </si>
+  <si>
+    <t>Trailer Park</t>
+  </si>
+  <si>
+    <t>Multifamily</t>
   </si>
 </sst>
 </file>
@@ -721,49 +736,49 @@
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Normal 2" xfId="42"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Акцент4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Акцент5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Акцент6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Заголовок 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Контрольная ячейка" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -779,9 +794,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -819,7 +834,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -891,7 +906,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1043,9 +1058,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P3" sqref="P3:P15"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,8 +1164,8 @@
       <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>59</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
@@ -1193,8 +1208,8 @@
       <c r="B3" t="s">
         <v>37</v>
       </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="C3" t="s">
+        <v>59</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -1237,8 +1252,8 @@
       <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="C4" t="s">
+        <v>59</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -1281,8 +1296,8 @@
       <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="C5">
-        <v>3</v>
+      <c r="C5" t="s">
+        <v>60</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -1325,8 +1340,8 @@
       <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="C6">
-        <v>3</v>
+      <c r="C6" t="s">
+        <v>60</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -1369,8 +1384,8 @@
       <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="C7">
-        <v>3</v>
+      <c r="C7" t="s">
+        <v>60</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
@@ -1413,8 +1428,8 @@
       <c r="B8" t="s">
         <v>37</v>
       </c>
-      <c r="C8">
-        <v>3</v>
+      <c r="C8" t="s">
+        <v>60</v>
       </c>
       <c r="D8" t="s">
         <v>29</v>
@@ -1457,8 +1472,8 @@
       <c r="B9" t="s">
         <v>37</v>
       </c>
-      <c r="C9">
-        <v>3</v>
+      <c r="C9" t="s">
+        <v>60</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
@@ -1501,8 +1516,8 @@
       <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="C10">
-        <v>4</v>
+      <c r="C10" t="s">
+        <v>61</v>
       </c>
       <c r="D10" t="s">
         <v>31</v>
@@ -1545,8 +1560,8 @@
       <c r="B11" t="s">
         <v>37</v>
       </c>
-      <c r="C11">
-        <v>4</v>
+      <c r="C11" t="s">
+        <v>61</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
@@ -1589,8 +1604,8 @@
       <c r="B12" t="s">
         <v>37</v>
       </c>
-      <c r="C12">
-        <v>5</v>
+      <c r="C12" t="s">
+        <v>62</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
@@ -1633,8 +1648,8 @@
       <c r="B13" t="s">
         <v>37</v>
       </c>
-      <c r="C13">
-        <v>5</v>
+      <c r="C13" t="s">
+        <v>62</v>
       </c>
       <c r="D13" t="s">
         <v>34</v>
@@ -1677,8 +1692,8 @@
       <c r="B14" t="s">
         <v>37</v>
       </c>
-      <c r="C14">
-        <v>6</v>
+      <c r="C14" t="s">
+        <v>63</v>
       </c>
       <c r="D14" t="s">
         <v>35</v>
@@ -1721,8 +1736,8 @@
       <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="C15">
-        <v>6</v>
+      <c r="C15" t="s">
+        <v>63</v>
       </c>
       <c r="D15" t="s">
         <v>36</v>
